--- a/biology/Médecine/François_Guéneau_de_Mussy/François_Guéneau_de_Mussy.xlsx
+++ b/biology/Médecine/François_Guéneau_de_Mussy/François_Guéneau_de_Mussy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gu%C3%A9neau_de_Mussy</t>
+          <t>François_Guéneau_de_Mussy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Guéneau de Mussy (11 juin 1774 à Semur-en-Auxois - 30 avril 1853 à Paris) est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gu%C3%A9neau_de_Mussy</t>
+          <t>François_Guéneau_de_Mussy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de François Pierre Marie Guéneau (1745-1794), seigneur de Mussy, maire et lieutenant-général de police de la ville de Montbard, qui fut emprisonné sous la Terreur, et d'Odette Oudin, il est le frère de Philibert Guéneau de Mussy et de Frédéric Guéneau de Mussy.
 Élève chez les Oratoriens de Lyon, il est admis en 1795, ainsi que son frère Philibert, à l'École polytechnique qui vient d'être créée. Avec sept camarades de première et de seconde année, dont Athanase et Ambroise Rendu, ils sont exclus, le 29 janvier 1796, pour avoir refusé de prêter serment de haine à la royauté.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gu%C3%A9neau_de_Mussy</t>
+          <t>François_Guéneau_de_Mussy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gu%C3%A9neau_de_Mussy</t>
+          <t>François_Guéneau_de_Mussy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Éloges de l'Académie de médecine, 1864
 Chronique Médicale, Volume 4, 1897</t>
